--- a/database/test_data_tables/BanquetDrinks.xlsx
+++ b/database/test_data_tables/BanquetDrinks.xlsx
@@ -1,47 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buseozkan/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4047932-FDA8-A647-8957-20FF134D7B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{3A165FDA-2535-2E43-915A-D49984657A6E}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
-  <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
-    <t>Pepsi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="53">
+  <si>
+    <t>BID</t>
+  </si>
+  <si>
+    <t>drinkName</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>Lemonade</t>
   </si>
   <si>
     <t>Orange Juice</t>
@@ -53,16 +40,13 @@
     <t>White Wine</t>
   </si>
   <si>
-    <t>Lemonade</t>
-  </si>
-  <si>
     <t>Beer</t>
   </si>
   <si>
     <t>Sparkling Water</t>
   </si>
   <si>
-    <t>Gin Tonic</t>
+    <t>Gin</t>
   </si>
   <si>
     <t>Whiskey</t>
@@ -71,7 +55,7 @@
     <t>Apple Juice</t>
   </si>
   <si>
-    <t>Tea</t>
+    <t>Long Island Iced Tea</t>
   </si>
   <si>
     <t>Espresso</t>
@@ -86,195 +70,128 @@
     <t>Mojito</t>
   </si>
   <si>
-    <t>Smoothie</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>Milkshake</t>
-  </si>
-  <si>
-    <t>Vodka Soda</t>
+    <t>Iced Tea</t>
+  </si>
+  <si>
+    <t>Vodka</t>
   </si>
   <si>
     <t>Green Tea</t>
   </si>
   <si>
-    <t>Hot Chocolate</t>
-  </si>
-  <si>
-    <t>Cola Zero</t>
-  </si>
-  <si>
-    <t>Fruit Punch</t>
-  </si>
-  <si>
-    <t>Whiskey Sour</t>
+    <t>Grape Soda</t>
+  </si>
+  <si>
+    <t>Root Beer</t>
+  </si>
+  <si>
+    <t>Ginger Ale</t>
   </si>
   <si>
     <t>Latte</t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Chardonnay</t>
-  </si>
-  <si>
-    <t>Espresso Martini</t>
+    <t>Still Water</t>
+  </si>
+  <si>
+    <t>Mango Smoothie</t>
   </si>
   <si>
     <t>Sangria</t>
   </si>
   <si>
-    <t>Cranberry Juice</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
-    <t>Rum Punch</t>
-  </si>
-  <si>
-    <t>Earl Grey Tea</t>
-  </si>
-  <si>
-    <t>Sparkling Lemonade</t>
-  </si>
-  <si>
-    <t>Lime Soda</t>
-  </si>
-  <si>
-    <t>Ginger Ale</t>
-  </si>
-  <si>
-    <t>Americano</t>
-  </si>
-  <si>
-    <t>Peach Iced Tea</t>
-  </si>
-  <si>
-    <t>Pina Colada</t>
-  </si>
-  <si>
-    <t>Mango Lassi</t>
+    <t>Berry Blast</t>
+  </si>
+  <si>
+    <t>Peach Tea</t>
+  </si>
+  <si>
+    <t>Rum</t>
+  </si>
+  <si>
+    <t>Chamomile Tea</t>
+  </si>
+  <si>
+    <t>Ale</t>
+  </si>
+  <si>
+    <t>Cappuccino</t>
+  </si>
+  <si>
+    <t>Macchiato</t>
+  </si>
+  <si>
+    <t>Mocha</t>
   </si>
   <si>
     <t>Martini</t>
   </si>
   <si>
-    <t>Herbal Tea</t>
-  </si>
-  <si>
-    <t>Hot Tea</t>
-  </si>
-  <si>
-    <t>Fruit Juice</t>
-  </si>
-  <si>
-    <t>Irish Coffee</t>
-  </si>
-  <si>
-    <t>Rose Wine</t>
-  </si>
-  <si>
-    <t>Coconut Water</t>
-  </si>
-  <si>
-    <t>Vodka Martini</t>
-  </si>
-  <si>
-    <t>Gin and Lemon</t>
-  </si>
-  <si>
-    <t>Hot Cocoa</t>
-  </si>
-  <si>
-    <t>Cola</t>
-  </si>
-  <si>
-    <t>Apple Cider</t>
+    <t>Rose'</t>
+  </si>
+  <si>
+    <t>Tequila</t>
   </si>
   <si>
     <t>Bloody Mary</t>
   </si>
   <si>
-    <t>Energy Drink</t>
-  </si>
-  <si>
-    <t>Sparkling Apple Cider</t>
-  </si>
-  <si>
-    <t>Ginger Beer</t>
-  </si>
-  <si>
-    <t>Caramel Latte</t>
-  </si>
-  <si>
-    <t>Peach Juice</t>
-  </si>
-  <si>
-    <t>Mimosa</t>
-  </si>
-  <si>
-    <t>Lemon Tea</t>
-  </si>
-  <si>
-    <t>Mango Smoothie</t>
-  </si>
-  <si>
-    <t>Rose Water</t>
-  </si>
-  <si>
-    <t>Orange Fizz</t>
-  </si>
-  <si>
-    <t>Cocktail</t>
-  </si>
-  <si>
-    <t>Chai Latte</t>
-  </si>
-  <si>
     <t>Cider</t>
   </si>
   <si>
-    <t>Vanilla Milkshake</t>
-  </si>
-  <si>
-    <t>Rum and Cola</t>
-  </si>
-  <si>
-    <t>Red Bull</t>
-  </si>
-  <si>
-    <t>Mint Lemonade</t>
-  </si>
-  <si>
-    <t>Lemon Iced Tea</t>
-  </si>
-  <si>
-    <t>Peach Bellini</t>
-  </si>
-  <si>
-    <t>BID</t>
-  </si>
-  <si>
-    <t>drinkName</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>Porter</t>
+  </si>
+  <si>
+    <t>Stout</t>
+  </si>
+  <si>
+    <t>Bourbon</t>
+  </si>
+  <si>
+    <t>Scotch</t>
+  </si>
+  <si>
+    <t>Brandy</t>
+  </si>
+  <si>
+    <t>Cosmopolitan</t>
+  </si>
+  <si>
+    <t>Pi?a Colada</t>
+  </si>
+  <si>
+    <t>Mai Tai</t>
+  </si>
+  <si>
+    <t>Daiquiri</t>
+  </si>
+  <si>
+    <t>Spritzer</t>
+  </si>
+  <si>
+    <t>Negroni</t>
+  </si>
+  <si>
+    <t>Old Fashioned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -287,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -295,26 +212,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -329,44 +256,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -393,32 +320,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -445,24 +354,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,396 +365,398 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147E151D-2FB4-CA48-8EAC-7CD182AC8C6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>7</v>
       </c>
@@ -874,7 +767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -885,7 +778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>8</v>
       </c>
@@ -896,18 +789,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>8</v>
       </c>
@@ -918,7 +811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -929,623 +822,623 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>9</v>
       </c>
       <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
       <c r="C29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C44">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C45">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C48">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C51">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C52">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C54">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C56">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C57">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C58">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C61">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C62">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C63">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C64">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C65">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C66">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C67">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C68">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C69">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C71">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C72">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C73">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C75">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C76">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C77">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C78">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C79">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C80">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C81">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C82">
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>28</v>
       </c>
@@ -1556,271 +1449,271 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C84">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C85">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86">
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C87">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C88">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C89">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C90">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C91">
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="C92">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C93">
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C94">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C95">
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C96">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C97">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C98">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C99">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>33</v>
       </c>
       <c r="B100" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C100">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>34</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C102">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>34</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C103">
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C104">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C105">
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C106">
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>36</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C107">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>36</v>
       </c>
@@ -1831,172 +1724,172 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>36</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C109">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>37</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C110">
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111">
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>37</v>
       </c>
       <c r="B112" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C112">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>38</v>
       </c>
       <c r="B113" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C113">
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>38</v>
       </c>
       <c r="B114" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C114">
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>38</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C115">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C116">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C117">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>39</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119">
         <v>40</v>
       </c>
       <c r="B119" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C119">
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C120">
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121">
         <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C121">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122">
         <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C122">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C123">
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124">
         <v>41</v>
       </c>
@@ -2007,29 +1900,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125">
         <v>42</v>
       </c>
       <c r="B125" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C125">
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126">
         <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C126">
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127">
         <v>42</v>
       </c>
@@ -2040,265 +1933,265 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128">
         <v>43</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C128">
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129">
         <v>43</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C129">
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130">
         <v>43</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C130">
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131">
         <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C131">
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132">
         <v>44</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C132">
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133">
         <v>44</v>
       </c>
       <c r="B133" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C133">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134">
         <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C134">
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135">
         <v>45</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C135">
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136">
         <v>45</v>
       </c>
       <c r="B136" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C136">
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137">
         <v>46</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C137">
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138">
         <v>46</v>
       </c>
       <c r="B138" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C138">
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139">
         <v>46</v>
       </c>
       <c r="B139" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C139">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140">
         <v>47</v>
       </c>
       <c r="B140" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C140">
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141">
         <v>47</v>
       </c>
       <c r="B141" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C141">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142">
         <v>47</v>
       </c>
       <c r="B142" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C142">
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143">
         <v>48</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C143">
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144">
         <v>48</v>
       </c>
       <c r="B144" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C144">
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145">
         <v>48</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C145">
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146">
         <v>49</v>
       </c>
       <c r="B146" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C146">
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147">
         <v>49</v>
       </c>
       <c r="B147" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C147">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148">
         <v>49</v>
       </c>
       <c r="B148" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C148">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149">
         <v>50</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C149">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150">
         <v>50</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C150">
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151">
         <v>50</v>
       </c>
       <c r="B151" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C151">
         <v>7</v>

--- a/database/test_data_tables/BanquetDrinks.xlsx
+++ b/database/test_data_tables/BanquetDrinks.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wtw/Downloads/未命名檔案夾3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167FA7BB-A89E-7747-A74A-F88B14E194E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -178,12 +184,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -191,8 +197,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -238,17 +251,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -286,7 +307,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -320,6 +341,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -354,9 +376,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -529,12 +552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="138" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -860,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>18</v>
@@ -2198,6 +2223,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>